--- a/apitest/data/apicases.xlsx
+++ b/apitest/data/apicases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17664" windowHeight="8616" tabRatio="936" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17664" windowHeight="8616" tabRatio="936"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
   <si>
     <t>case_id</t>
   </si>
@@ -234,11 +234,64 @@
     <t>/member/recharge</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"amount": 100}</t>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{"member_id":#member_id#,"amount": 100.01}</t>
+  </si>
+  <si>
+    <t>充值不成功-MemberId为空</t>
+  </si>
+  <si>
+    <t>{"amount":10000}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"用户id为空"}</t>
+  </si>
+  <si>
+    <t>充值不成功-Amount为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额为空"}</t>
+  </si>
+  <si>
+    <t>充值不成功-Amount等于0</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":0}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+  </si>
+  <si>
+    <t>充值不成功-Amount为负值</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":-1}</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":500000}</t>
+  </si>
+  <si>
+    <t>充值不成功-Amount大于500000</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":500000.01}</t>
+  </si>
+  <si>
+    <t>充值不成功-Amount的小数位数多于2位</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":400000.001}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额小数超过两位"}</t>
+  </si>
+  <si>
+    <t>充值成功-Amount的小数位数1位</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":400000.1}</t>
   </si>
 </sst>
 </file>
@@ -600,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -614,8 +667,8 @@
     <col min="6" max="6" width="58" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="9" max="12" width="8.88671875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -666,6 +719,7 @@
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
@@ -689,6 +743,7 @@
       <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
@@ -712,6 +767,7 @@
       <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -735,6 +791,7 @@
       <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
@@ -758,6 +815,7 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
@@ -781,6 +839,7 @@
       <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="H7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -809,8 +868,8 @@
     <col min="6" max="6" width="75.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="46.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="9" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,6 +920,7 @@
       <c r="G2" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -884,6 +944,7 @@
       <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -907,6 +968,7 @@
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -930,6 +992,7 @@
       <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -953,6 +1016,7 @@
       <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -976,6 +1040,7 @@
       <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -999,6 +1064,7 @@
       <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1022,6 +1088,7 @@
       <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1045,6 +1112,7 @@
       <c r="G10" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1068,6 +1136,7 @@
       <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1091,6 +1160,7 @@
       <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1114,6 +1184,7 @@
       <c r="G13" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1137,6 +1208,7 @@
       <c r="G14" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="H14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,24 +1219,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1217,9 +1289,202 @@
       </c>
       <c r="H2"/>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 

--- a/apitest/data/apicases.xlsx
+++ b/apitest/data/apicases.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\apitest\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\apitest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92650C05-0D20-45C3-97A8-7B9BA77F6FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="936" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="936" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="343">
   <si>
     <t>case_id</t>
   </si>
@@ -411,7 +410,7 @@
     <t>/member/invest</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":400.00}</t>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":100.00}</t>
   </si>
   <si>
     <t>{"code": 0,"msg": "OK"}</t>
@@ -420,25 +419,25 @@
     <t>用户id为空</t>
   </si>
   <si>
-    <t>{"loan_id":#loan_id#,"amount":400.00}</t>
-  </si>
-  <si>
-    <t>{"member_id":70,"loan_id":#loan_id#,"amount":400.00}</t>
-  </si>
-  <si>
-    <t>{"member_id":"#member_id#","loan_id":#loan_id#,"amount":400.00}</t>
+    <t>{"loan_id":#loan_id#,"amount":100.00}</t>
+  </si>
+  <si>
+    <t>{"member_id":70,"loan_id":#loan_id#,"amount":100.00}</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","loan_id":#loan_id#,"amount":100.00}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"数值参数格式错误"}</t>
   </si>
   <si>
-    <t>{"member_id":float(#member_id#),"loan_id":#loan_id#,"amount":400.00}</t>
+    <t>{"member_id":float(#member_id#),"loan_id":#loan_id#,"amount":100.00}</t>
   </si>
   <si>
     <t>标id为空</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"amount":400.00}</t>
+    <t>{"member_id":#member_id#,"amount":100.00}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"项目id为空"}</t>
@@ -447,7 +446,7 @@
     <t>标id不在竞标状态</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":#fail_loan_id#,"amount":400.00}</t>
+    <t>{"member_id":#member_id#,"loan_id":#fail_loan_id#,"amount":100.00}</t>
   </si>
   <si>
     <t>{"code":2,"msg":"该项目不在竞标中状态"}</t>
@@ -456,13 +455,13 @@
     <t>标id为字符串</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":"#loan_id#","amount":400.00}</t>
+    <t>{"member_id":#member_id#,"loan_id":"#loan_id#","amount":100.00}</t>
   </si>
   <si>
     <t>标id为小数</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":float(#loan_id#),"amount":400.00}</t>
+    <t>{"member_id":#member_id#,"loan_id":float(#loan_id#),"amount":100.00}</t>
   </si>
   <si>
     <t>投资金额为空</t>
@@ -477,7 +476,7 @@
     <t>投资金额为字符串</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":"400.00"}</t>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":"100.00"}</t>
   </si>
   <si>
     <t>投资金额非100整除的整数</t>
@@ -492,25 +491,28 @@
     <t>投资金额为负数</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-400.00}</t>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":-100.00}</t>
   </si>
   <si>
     <t>投资金额大于项目剩余可投金额</t>
   </si>
   <si>
+    <t>{"code":2,"msg":"该标可投金额不足,可投金额：#leave_amount#"}</t>
+  </si>
+  <si>
+    <t>投资金额大于用户余额</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":#user_amount#}</t>
+  </si>
+  <si>
+    <t>{"code":1002,"msg":"账户余额不足"}</t>
+  </si>
+  <si>
+    <t>投资金额等于项目剩余可投金额</t>
+  </si>
+  <si>
     <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":#project_amount#}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"该标可投金额不足,可投金额：#leave_amount#"}</t>
-  </si>
-  <si>
-    <t>投资金额大于用户余额</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":#user_amount#}</t>
-  </si>
-  <si>
-    <t>{"code":1002,"msg":"账户余额不足"}</t>
   </si>
   <si>
     <t>add</t>
@@ -1294,15 +1296,19 @@
   <si>
     <t>bidding_days</t>
   </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":#project_amount#+100}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,28 +1719,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="33" width="8.875" style="11" customWidth="1"/>
-    <col min="34" max="16384" width="8.875" style="11"/>
+    <col min="7" max="7" width="44.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="38" width="8.88671875" style="11" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1812,7 +1818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1919,7 +1925,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1927,23 +1933,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="36.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="8" customWidth="1"/>
-    <col min="7" max="7" width="92.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1972,21 +1978,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11" t="s">
@@ -1996,24 +2002,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>304</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>13</v>
@@ -2030,27 +2036,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -2096,10 +2102,10 @@
         <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2109,113 +2115,113 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="14.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="8" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12">
       <c r="D6" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
       <c r="D7" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="E8" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
       <c r="E12" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
       <c r="C15" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
       <c r="E16" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2224,59 +2230,59 @@
         <v>500000.01</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
       <c r="E20" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="E23" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -2285,7 +2291,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2294,9 +2300,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12">
       <c r="F24" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G24" s="4">
         <v>10</v>
@@ -2305,7 +2311,7 @@
         <v>45</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J24">
         <v>9</v>
@@ -2314,64 +2320,64 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12">
       <c r="C26" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
       <c r="E27" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12">
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12">
       <c r="C30" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
       <c r="E31" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F31" s="3">
         <v>43840</v>
@@ -2383,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2399,29 +2405,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="33" width="9" style="7" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="38" width="9" style="7" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="28.95" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2805,28 +2811,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="33" width="8.875" style="11" customWidth="1"/>
-    <col min="34" max="16384" width="8.875" style="11"/>
+    <col min="1" max="1" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="38" width="8.88671875" style="11" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3050,7 +3056,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3077,7 +3083,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3104,7 +3110,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3131,7 +3137,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3158,7 +3164,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3210,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3244,28 +3250,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="30" width="8.875" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.875" style="11"/>
+    <col min="1" max="1" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="35" width="8.88671875" style="11" customWidth="1"/>
+    <col min="36" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3317,13 +3323,13 @@
         <v>68</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3346,13 +3352,13 @@
         <v>68</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3375,13 +3381,13 @@
         <v>68</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3404,13 +3410,13 @@
         <v>68</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3489,7 +3495,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3516,7 +3522,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3597,7 +3603,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3683,29 +3689,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="71" style="9" customWidth="1"/>
-    <col min="7" max="7" width="65.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="9" customWidth="1"/>
-    <col min="10" max="29" width="8.875" style="9" customWidth="1"/>
-    <col min="30" max="16384" width="8.875" style="9"/>
+    <col min="7" max="7" width="65.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="9" customWidth="1"/>
+    <col min="10" max="34" width="8.88671875" style="9" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -4092,10 +4098,10 @@
         <v>125</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -4104,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>122</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>124</v>
@@ -4121,16 +4127,45 @@
         <v>125</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4141,29 +4176,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="16" customWidth="1"/>
-    <col min="10" max="29" width="8.875" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="8.875" style="6"/>
+    <col min="1" max="1" width="8.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="16" customWidth="1"/>
+    <col min="10" max="34" width="8.88671875" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4192,24 +4227,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>68</v>
@@ -4221,24 +4256,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>68</v>
@@ -4250,24 +4285,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>68</v>
@@ -4279,24 +4314,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>68</v>
@@ -4308,24 +4343,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="14.4" customHeight="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>68</v>
@@ -4337,12 +4372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.4" customHeight="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>79</v>
@@ -4351,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>81</v>
@@ -4363,12 +4398,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="14.4" customHeight="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>82</v>
@@ -4377,10 +4412,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>84</v>
@@ -4389,12 +4424,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.4" customHeight="1">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>85</v>
@@ -4403,10 +4438,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>87</v>
@@ -4415,12 +4450,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.4" customHeight="1">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>88</v>
@@ -4429,10 +4464,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>87</v>
@@ -4441,76 +4476,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.4" customHeight="1">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.4" customHeight="1">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="14.4" customHeight="1">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>87</v>
@@ -4519,24 +4554,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.4" customHeight="1">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>87</v>
@@ -4545,102 +4580,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.4" customHeight="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.4" customHeight="1">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="14.4" customHeight="1">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="14.4" customHeight="1">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>87</v>
@@ -4649,24 +4684,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="14.4" customHeight="1">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>87</v>
@@ -4675,76 +4710,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14.4" customHeight="1">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14.4" customHeight="1">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.4" customHeight="1">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>68</v>
@@ -4756,24 +4791,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.4" customHeight="1">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>68</v>
@@ -4785,154 +4820,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.4" customHeight="1">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.4" customHeight="1">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14.4" customHeight="1">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14.4" customHeight="1">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.4" customHeight="1">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>216</v>
-      </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.4" customHeight="1">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>87</v>
@@ -4941,24 +4976,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="14.4" customHeight="1">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>87</v>
@@ -4967,102 +5002,102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="14.4" customHeight="1">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="14.4" customHeight="1">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="14.4" customHeight="1">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="14.4" customHeight="1">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>87</v>
@@ -5071,24 +5106,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="14.4" customHeight="1">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>87</v>
@@ -5097,50 +5132,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="14.4" customHeight="1">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="14.4" customHeight="1">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>87</v>
@@ -5149,24 +5184,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="14.4" customHeight="1">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>87</v>
@@ -5175,50 +5210,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="14.4" customHeight="1">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="14.4" customHeight="1">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>68</v>
@@ -5230,24 +5265,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="14.4" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>68</v>
@@ -5259,27 +5294,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="14.4" customHeight="1">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -5293,29 +5328,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="9"/>
+    <col min="7" max="7" width="39.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="20" width="9" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5344,163 +5379,163 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -5514,29 +5549,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="8" customWidth="1"/>
-    <col min="10" max="15" width="8.875" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="8" customWidth="1"/>
+    <col min="10" max="20" width="8.88671875" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5565,7 +5600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.4" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5573,7 +5608,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
@@ -5591,24 +5626,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>13</v>
@@ -5617,27 +5652,27 @@
         <v>14</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>13</v>
@@ -5646,27 +5681,27 @@
         <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>81</v>
@@ -5675,24 +5710,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>84</v>
@@ -5701,24 +5736,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>132</v>
@@ -5727,24 +5762,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>132</v>
@@ -5753,50 +5788,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>97</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>62</v>
@@ -5813,21 +5848,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="36.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5853,53 +5888,55 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>